--- a/medicine/Sexualité et sexologie/Les_Confidences_érotiques_d'un_lit_trop_accueillant/Les_Confidences_érotiques_d'un_lit_trop_accueillant.xlsx
+++ b/medicine/Sexualité et sexologie/Les_Confidences_érotiques_d'un_lit_trop_accueillant/Les_Confidences_érotiques_d'un_lit_trop_accueillant.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Les_Confidences_%C3%A9rotiques_d%27un_lit_trop_accueillant</t>
+          <t>Les_Confidences_érotiques_d'un_lit_trop_accueillant</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Confidences érotiques d'un lit trop accueillant est un film français de Michel Lemoine sorti en 1973.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Les_Confidences_%C3%A9rotiques_d%27un_lit_trop_accueillant</t>
+          <t>Les_Confidences_érotiques_d'un_lit_trop_accueillant</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Synopsis</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Dominique retrouve par hasard Jean-Louis, son ancien petit ami et l'invite à venir prendre un verre chez elle.
 Un lit de forme ronde excite la curiosité de celui-ci. Dominique se fait un devoir, et un plaisir, de lui conter le parcours de ce lit et les histoires d'amour et de sexe qui lui sont attachées.
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Les_Confidences_%C3%A9rotiques_d%27un_lit_trop_accueillant</t>
+          <t>Les_Confidences_érotiques_d'un_lit_trop_accueillant</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,9 +557,11 @@
           <t>Fiche technique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Titre : Les Confidences érotiques d'un lit trop accueillant[1]
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Titre : Les Confidences érotiques d'un lit trop accueillant
 Réalisation : Michel Lemoine
 Scénario : Michel Lemoine
 Photographie : Philippe Théaudière • Gilbert Breaux
@@ -567,7 +583,7 @@
 Durée : 78 minutes
 Date de sortie :
  France : 13 septembre 1973
-Interdiction aux moins de 18 ans à sa sortie en salles en France[2].
+Interdiction aux moins de 18 ans à sa sortie en salles en France.
 Autres titres connus
  France : Les Frôleuses
  France : Les Mésaventures d'un lit trop accueillant</t>
@@ -580,7 +596,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Les_Confidences_%C3%A9rotiques_d%27un_lit_trop_accueillant</t>
+          <t>Les_Confidences_érotiques_d'un_lit_trop_accueillant</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -598,7 +614,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Olga Georges-Picot : Dominique
 Michel Le Royer : Jean-Louis
@@ -650,7 +668,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Les_Confidences_%C3%A9rotiques_d%27un_lit_trop_accueillant</t>
+          <t>Les_Confidences_érotiques_d'un_lit_trop_accueillant</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -668,7 +686,9 @@
           <t>Éditions en vidéo</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>2007 : Édition DVD - Editeur : KVP - Coffret : Les Classiques de l'érotisme - Michel Lemoine (avec Les Désaxées, Les Chiennes et Jeunes Filles en extase) - mention : accord parental
 2010 : Édition DVD - Editeur : KVP - Sortie le 15/09/2010  - Titre : Les Confidences Érotiques D'un Lit Trop Accueillant - mention : accord parental</t>
